--- a/data/aet_sample_fixed_hss_128.xlsx
+++ b/data/aet_sample_fixed_hss_128.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -564,15 +564,15 @@
         <v>17879310</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F7" si="0">D4/E4</f>
+        <f t="shared" ref="F4:F10" si="0">D4/E4</f>
         <v>8169.1414675957849</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G7" si="1">C4/B4</f>
+        <f t="shared" ref="G4:G10" si="1">C4/B4</f>
         <v>1.1387096774193548</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H7" si="2">E4/C4</f>
+        <f t="shared" ref="H4:H10" si="2">E4/C4</f>
         <v>50649.603399433428</v>
       </c>
     </row>
